--- a/biology/Zoologie/Hynobiidae/Hynobiidae.xlsx
+++ b/biology/Zoologie/Hynobiidae/Hynobiidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hynobiidae sont une famille d'urodèles[1]. Elle a été décrite par le zoologiste Edward Drinker Cope (1840-1897) en 1859.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hynobiidae sont une famille d'urodèles. Elle a été décrite par le zoologiste Edward Drinker Cope (1840-1897) en 1859.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ses dix genres se rencontrent en Russie, en Asie centrale, en Iran et en Asie de l'Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ses dix genres se rencontrent en Russie, en Asie centrale, en Iran et en Asie de l'Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 novembre 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 novembre 2016) :
 sous-famille Hynobiinae Cope, 1859
 genre Afghanodon Dubois &amp; Raffaëlli, 2012
 genre Batrachuperus Boulenger, 1878
@@ -557,7 +573,7 @@
 genre Salamandrella Dybowski, 1870
 sous-famille Onychodactylinae Dubois &amp; Raffaëlli, 2012
 genre Onychodactylus Tschudi, 1838
-et les genres fossiles[3] :
+et les genres fossiles :
 †Iridotriton Evans, Lally, Chure, Elder &amp; Maisano, 2005
 †Liaoxitriton Dong &amp; Wang, 1998</t>
         </is>
@@ -587,7 +603,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1859 : On the primary divisions of the Salamandridae, with descriptions of two new species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 11, p. 122-128 (texte intégral).</t>
         </is>
